--- a/ResultsTransformation/Map/Routes/route02.xlsx
+++ b/ResultsTransformation/Map/Routes/route02.xlsx
@@ -638,37 +638,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -745,37 +745,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -807,37 +807,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -869,37 +869,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -931,37 +931,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1033,37 +1033,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1135,37 +1135,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1537,12 +1537,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -4721,12 +4721,12 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>#</t>
+          <t>t</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -5471,37 +5471,37 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -5538,37 +5538,37 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -5630,37 +5630,37 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -5697,37 +5697,37 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -5764,37 +5764,37 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
